--- a/W1D3- ESERCIZIO 2.xlsx
+++ b/W1D3- ESERCIZIO 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clore\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\DATPT05024\02. LEZIONE PRATICA W1D3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41D80AD-37F9-46FA-82BA-9CC2AD767711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99515D1E-9CEA-436C-81E5-D7434D43C3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assoluti_Iva" sheetId="15" r:id="rId1"/>
@@ -930,6 +930,7 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="6" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -939,7 +940,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma [0]" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1266,7 +1266,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5:D340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1281,11 +1281,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="7" t="s">
         <v>206</v>
       </c>
@@ -1298,20 +1298,20 @@
         <f>AVERAGE(IMPONIBILE)</f>
         <v>519442.42424242425</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="28">
         <f>SUM(IMPONIBILE)</f>
         <v>171416000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -1344,7 +1344,7 @@
         <v>281000</v>
       </c>
       <c r="D5" s="7" t="str">
-        <f>IF(AND(B5:B340="ABBIGLIAMENTO", C5:C340&gt;300000), "TROVATO", "")</f>
+        <f>IF(AND(B5="ABBIGLIAMENTO", C5&gt;300000), "TROVATO", "")</f>
         <v/>
       </c>
       <c r="E5" s="7">
@@ -1367,7 +1367,7 @@
         <v>323000</v>
       </c>
       <c r="D6" s="7" t="str">
-        <f t="shared" ref="D6:D69" si="0">IF(AND(B6:B341="ABBIGLIAMENTO", C6:C341&gt;300000), "TROVATO", "")</f>
+        <f t="shared" ref="D6:D69" si="0">IF(AND(B6="ABBIGLIAMENTO", C6&gt;300000), "TROVATO", "")</f>
         <v>TROVATO</v>
       </c>
       <c r="E6" s="7">
@@ -2839,7 +2839,7 @@
         <v>501000</v>
       </c>
       <c r="D70" s="7" t="str">
-        <f t="shared" ref="D70:D133" si="3">IF(AND(B70:B405="ABBIGLIAMENTO", C70:C405&gt;300000), "TROVATO", "")</f>
+        <f t="shared" ref="D70:D133" si="3">IF(AND(B70="ABBIGLIAMENTO", C70&gt;300000), "TROVATO", "")</f>
         <v/>
       </c>
       <c r="E70" s="7">
@@ -4311,7 +4311,7 @@
         <v>97000</v>
       </c>
       <c r="D134" s="7" t="str">
-        <f t="shared" ref="D134:D197" si="6">IF(AND(B134:B469="ABBIGLIAMENTO", C134:C469&gt;300000), "TROVATO", "")</f>
+        <f t="shared" ref="D134:D197" si="6">IF(AND(B134="ABBIGLIAMENTO", C134&gt;300000), "TROVATO", "")</f>
         <v/>
       </c>
       <c r="E134" s="7">
@@ -5777,7 +5777,7 @@
         <v>11000</v>
       </c>
       <c r="D198" s="7" t="str">
-        <f t="shared" ref="D198:D261" si="9">IF(AND(B198:B533="ABBIGLIAMENTO", C198:C533&gt;300000), "TROVATO", "")</f>
+        <f t="shared" ref="D198:D261" si="9">IF(AND(B198="ABBIGLIAMENTO", C198&gt;300000), "TROVATO", "")</f>
         <v/>
       </c>
       <c r="E198" s="7">
@@ -7247,7 +7247,7 @@
         <v>227000</v>
       </c>
       <c r="D262" s="7" t="str">
-        <f t="shared" ref="D262:D325" si="12">IF(AND(B262:B597="ABBIGLIAMENTO", C262:C597&gt;300000), "TROVATO", "")</f>
+        <f t="shared" ref="D262:D325" si="12">IF(AND(B262="ABBIGLIAMENTO", C262&gt;300000), "TROVATO", "")</f>
         <v/>
       </c>
       <c r="E262" s="7">
@@ -8715,7 +8715,7 @@
         <v>80000</v>
       </c>
       <c r="D326" s="7" t="str">
-        <f t="shared" ref="D326:D340" si="15">IF(AND(B326:B661="ABBIGLIAMENTO", C326:C661&gt;300000), "TROVATO", "")</f>
+        <f t="shared" ref="D326:D340" si="15">IF(AND(B326="ABBIGLIAMENTO", C326&gt;300000), "TROVATO", "")</f>
         <v/>
       </c>
       <c r="E326" s="7">
